--- a/AGA307 Programming Assessment 1 Checklist.xlsx
+++ b/AGA307 Programming Assessment 1 Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamoa\Desktop\fuufff\Nguyen_A_AGA307_A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBB8E94-1E33-4BE5-9E4C-DAE77DF483E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9C0EED-3053-4C3A-8FC8-E686C5BE0ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4910" yWindow="0" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
   <si>
     <t>Status</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Create a weapon select system with 3 different weapons</t>
+  </si>
+  <si>
+    <t>Anna Nguyen</t>
+  </si>
+  <si>
+    <t>https://github.com/anguyen10/Nguyen_A_AGA307_A1</t>
   </si>
 </sst>
 </file>
@@ -210,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -240,6 +246,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -338,10 +351,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -413,8 +427,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -604,11 +623,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3297,8 +3316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3373,7 +3392,9 @@
       <c r="M4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="21"/>
+      <c r="N4" s="21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
@@ -3397,7 +3418,9 @@
       <c r="M5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="21"/>
+      <c r="N5" s="27" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
@@ -3443,7 +3466,7 @@
       </c>
       <c r="N7" s="11">
         <f>COUNTIFS(I4:I64,TRUE,J4:J64,"Required")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3460,7 +3483,7 @@
       </c>
       <c r="N8" s="12">
         <f>COUNTIFS(I4:I64,TRUE,J4:J64,"Required")/COUNTIFS(I4:I64,"&lt;&gt;",J4:J64,"Required")</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="26" x14ac:dyDescent="0.3">
@@ -3558,11 +3581,11 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="str">
         <f>IF(I15,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F15" s="22"/>
       <c r="I15" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -3578,11 +3601,11 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="str">
         <f>IF(I16,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F16" s="22"/>
       <c r="I16" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>4</v>
@@ -4333,16 +4356,19 @@
       <formula>$E35="Done"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="N5" r:id="rId1" xr:uid="{E0520110-0FE4-43CF-B42F-3442710687C9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId4" name="Check Box 11">
+            <control shapeId="1035" r:id="rId5" name="Check Box 11">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4364,7 +4390,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId5" name="Check Box 12">
+            <control shapeId="1036" r:id="rId6" name="Check Box 12">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4386,7 +4412,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId6" name="Check Box 13">
+            <control shapeId="1037" r:id="rId7" name="Check Box 13">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4408,7 +4434,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId7" name="Check Box 14">
+            <control shapeId="1038" r:id="rId8" name="Check Box 14">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4430,7 +4456,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId8" name="Check Box 16">
+            <control shapeId="1040" r:id="rId9" name="Check Box 16">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4452,7 +4478,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId9" name="Check Box 17">
+            <control shapeId="1041" r:id="rId10" name="Check Box 17">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4474,7 +4500,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId10" name="Check Box 30">
+            <control shapeId="1054" r:id="rId11" name="Check Box 30">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4496,7 +4522,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId11" name="Check Box 31">
+            <control shapeId="1055" r:id="rId12" name="Check Box 31">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4518,7 +4544,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId12" name="Check Box 32">
+            <control shapeId="1056" r:id="rId13" name="Check Box 32">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4540,7 +4566,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId13" name="Check Box 33">
+            <control shapeId="1057" r:id="rId14" name="Check Box 33">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4562,7 +4588,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId14" name="Check Box 35">
+            <control shapeId="1059" r:id="rId15" name="Check Box 35">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4584,7 +4610,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId15" name="Check Box 36">
+            <control shapeId="1060" r:id="rId16" name="Check Box 36">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4606,7 +4632,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId16" name="Check Box 38">
+            <control shapeId="1062" r:id="rId17" name="Check Box 38">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4628,7 +4654,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId17" name="Check Box 39">
+            <control shapeId="1063" r:id="rId18" name="Check Box 39">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4650,7 +4676,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId18" name="Check Box 41">
+            <control shapeId="1065" r:id="rId19" name="Check Box 41">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4672,7 +4698,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId19" name="Check Box 42">
+            <control shapeId="1066" r:id="rId20" name="Check Box 42">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4694,7 +4720,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId20" name="Check Box 43">
+            <control shapeId="1067" r:id="rId21" name="Check Box 43">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4716,7 +4742,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId21" name="Check Box 44">
+            <control shapeId="1068" r:id="rId22" name="Check Box 44">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4738,7 +4764,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId22" name="Check Box 46">
+            <control shapeId="1070" r:id="rId23" name="Check Box 46">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4760,7 +4786,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId23" name="Check Box 47">
+            <control shapeId="1071" r:id="rId24" name="Check Box 47">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4782,7 +4808,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId24" name="Check Box 48">
+            <control shapeId="1072" r:id="rId25" name="Check Box 48">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4804,7 +4830,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId25" name="Check Box 49">
+            <control shapeId="1073" r:id="rId26" name="Check Box 49">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4826,7 +4852,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId26" name="Check Box 51">
+            <control shapeId="1075" r:id="rId27" name="Check Box 51">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4848,7 +4874,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId27" name="Check Box 52">
+            <control shapeId="1076" r:id="rId28" name="Check Box 52">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4870,7 +4896,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId28" name="Check Box 53">
+            <control shapeId="1077" r:id="rId29" name="Check Box 53">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4892,7 +4918,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId29" name="Check Box 54">
+            <control shapeId="1078" r:id="rId30" name="Check Box 54">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4914,7 +4940,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1080" r:id="rId30" name="Check Box 56">
+            <control shapeId="1080" r:id="rId31" name="Check Box 56">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4936,7 +4962,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1081" r:id="rId31" name="Check Box 57">
+            <control shapeId="1081" r:id="rId32" name="Check Box 57">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4958,7 +4984,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1082" r:id="rId32" name="Check Box 58">
+            <control shapeId="1082" r:id="rId33" name="Check Box 58">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4980,7 +5006,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1085" r:id="rId33" name="Check Box 61">
+            <control shapeId="1085" r:id="rId34" name="Check Box 61">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5002,7 +5028,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1086" r:id="rId34" name="Check Box 62">
+            <control shapeId="1086" r:id="rId35" name="Check Box 62">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5024,7 +5050,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1090" r:id="rId35" name="Check Box 66">
+            <control shapeId="1090" r:id="rId36" name="Check Box 66">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5046,7 +5072,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1091" r:id="rId36" name="Check Box 67">
+            <control shapeId="1091" r:id="rId37" name="Check Box 67">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5068,7 +5094,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1092" r:id="rId37" name="Check Box 68">
+            <control shapeId="1092" r:id="rId38" name="Check Box 68">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5090,7 +5116,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1095" r:id="rId38" name="Check Box 71">
+            <control shapeId="1095" r:id="rId39" name="Check Box 71">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5112,7 +5138,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1096" r:id="rId39" name="Check Box 72">
+            <control shapeId="1096" r:id="rId40" name="Check Box 72">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5139,15 +5165,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF58D7409069E846B00DB25867EC1E41" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8889c99339fd8d30ea1e39f748207e48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="842c39b8-6f05-4e7d-af89-8d79329dbf29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d824582180fca2260c477ddd88b6a73" ns2:_="">
     <xsd:import namespace="842c39b8-6f05-4e7d-af89-8d79329dbf29"/>
@@ -5325,15 +5342,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB499FA7-04FF-4589-8B5A-D9713A7C54E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{953C7737-E5F1-4C46-BA64-D3D96D829C28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5349,4 +5367,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB499FA7-04FF-4589-8B5A-D9713A7C54E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>